--- a/experiment_results/20201206_AGGREGATION_AVERAGE_ADDITION_NORMALIZATION_NONE/ExamDB/4wise/0.95_.xlsx
+++ b/experiment_results/20201206_AGGREGATION_AVERAGE_ADDITION_NORMALIZATION_NONE/ExamDB/4wise/0.95_.xlsx
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>168</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>251</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="L2">
         <v>251</v>
@@ -621,34 +621,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>168</v>
       </c>
       <c r="H3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>251</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="L3">
         <v>251</v>
@@ -659,34 +659,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>251</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <v>251</v>
@@ -697,34 +697,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>15</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>128</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>251</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L5">
         <v>251</v>
@@ -735,34 +735,34 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>41</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>128</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>251</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L6">
         <v>251</v>
@@ -773,34 +773,34 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>36</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>132</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>251</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L7">
         <v>251</v>
@@ -811,34 +811,34 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>44</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>132</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>251</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L8">
         <v>251</v>
@@ -849,34 +849,34 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>48</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>132</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>251</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L9">
         <v>251</v>
@@ -887,34 +887,34 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>29</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>132</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>251</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L10">
         <v>251</v>
@@ -925,34 +925,34 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>59</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>168</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>251</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="L11">
         <v>251</v>
@@ -963,34 +963,34 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <v>128</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>251</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L12">
         <v>251</v>
@@ -1001,34 +1001,34 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <v>128</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>251</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L13">
         <v>251</v>
@@ -1039,34 +1039,34 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>36</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>132</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>251</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L14">
         <v>251</v>
@@ -1077,34 +1077,34 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>42</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>128</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>251</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L15">
         <v>251</v>
@@ -1115,34 +1115,34 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>46</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>128</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>251</v>
       </c>
       <c r="J16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L16">
         <v>251</v>
@@ -1153,34 +1153,34 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>36</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>132</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>251</v>
       </c>
       <c r="J17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L17">
         <v>251</v>
@@ -1191,34 +1191,34 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>44</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>132</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>251</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L18">
         <v>251</v>
@@ -1229,34 +1229,34 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>132</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>251</v>
       </c>
       <c r="J19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>251</v>
@@ -1285,16 +1285,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>251</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="L20">
         <v>215</v>
@@ -1305,34 +1305,34 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>36</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G21">
         <v>132</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I21">
         <v>251</v>
       </c>
       <c r="J21">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L21">
         <v>251</v>
@@ -1352,25 +1352,25 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>251</v>
       </c>
       <c r="J22">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="L22">
         <v>251</v>
@@ -1381,34 +1381,34 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>31</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>128</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>251</v>
       </c>
       <c r="J23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L23">
         <v>251</v>
@@ -1419,34 +1419,34 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>142</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>251</v>
       </c>
       <c r="J24">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="L24">
         <v>251</v>
@@ -1457,34 +1457,34 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>35</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>128</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>251</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L25">
         <v>251</v>
@@ -1495,34 +1495,34 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>179</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>251</v>
       </c>
       <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
         <v>11</v>
-      </c>
-      <c r="K26">
-        <v>251</v>
       </c>
       <c r="L26">
         <v>251</v>
@@ -1533,34 +1533,34 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>251</v>
       </c>
       <c r="J27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="L27">
         <v>251</v>
@@ -1571,34 +1571,34 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>12</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>132</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>251</v>
       </c>
       <c r="J28">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L28">
         <v>251</v>
@@ -1609,34 +1609,34 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>42</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <v>128</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I29">
         <v>251</v>
       </c>
       <c r="J29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L29">
         <v>251</v>
@@ -1647,34 +1647,34 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <v>27</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <v>132</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>251</v>
       </c>
       <c r="J30">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L30">
         <v>251</v>
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>36</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G31">
         <v>132</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>251</v>
       </c>
       <c r="J31">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L31">
         <v>251</v>
@@ -1723,34 +1723,34 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>41</v>
       </c>
       <c r="E32">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G32">
         <v>128</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>251</v>
       </c>
       <c r="J32">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L32">
         <v>251</v>
@@ -1761,34 +1761,34 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>33</v>
       </c>
       <c r="E33">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G33">
         <v>128</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>251</v>
       </c>
       <c r="J33">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L33">
         <v>251</v>
@@ -1799,34 +1799,34 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>15</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G34">
         <v>132</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I34">
         <v>251</v>
       </c>
       <c r="J34">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L34">
         <v>251</v>
@@ -1837,34 +1837,34 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>42</v>
       </c>
       <c r="E35">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G35">
         <v>128</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <v>251</v>
       </c>
       <c r="J35">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L35">
         <v>251</v>
@@ -1875,34 +1875,34 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>43</v>
       </c>
       <c r="E36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>128</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>251</v>
       </c>
       <c r="J36">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L36">
         <v>251</v>
@@ -1913,34 +1913,34 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
       </c>
       <c r="H37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>251</v>
       </c>
       <c r="J37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="L37">
         <v>251</v>
@@ -1951,34 +1951,34 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <v>42</v>
       </c>
       <c r="E38">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G38">
         <v>128</v>
       </c>
       <c r="H38">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I38">
         <v>251</v>
       </c>
       <c r="J38">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L38">
         <v>251</v>
@@ -1989,34 +1989,34 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>43</v>
       </c>
       <c r="E39">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G39">
         <v>132</v>
       </c>
       <c r="H39">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <v>251</v>
       </c>
       <c r="J39">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L39">
         <v>251</v>
@@ -2027,34 +2027,34 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D40">
         <v>26</v>
       </c>
       <c r="E40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G40">
         <v>128</v>
       </c>
       <c r="H40">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>251</v>
       </c>
       <c r="J40">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L40">
         <v>251</v>
@@ -2065,34 +2065,34 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>42</v>
       </c>
       <c r="E41">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G41">
         <v>128</v>
       </c>
       <c r="H41">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>251</v>
       </c>
       <c r="J41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L41">
         <v>251</v>
@@ -2103,34 +2103,34 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D42">
         <v>31</v>
       </c>
       <c r="E42">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G42">
         <v>128</v>
       </c>
       <c r="H42">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>251</v>
       </c>
       <c r="J42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L42">
         <v>251</v>
@@ -2141,34 +2141,34 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D43">
         <v>19</v>
       </c>
       <c r="E43">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G43">
         <v>132</v>
       </c>
       <c r="H43">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I43">
         <v>251</v>
       </c>
       <c r="J43">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L43">
         <v>251</v>
@@ -2179,34 +2179,34 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D44">
         <v>43</v>
       </c>
       <c r="E44">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G44">
         <v>132</v>
       </c>
       <c r="H44">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I44">
         <v>251</v>
       </c>
       <c r="J44">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L44">
         <v>251</v>
@@ -2217,34 +2217,34 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>10</v>
       </c>
       <c r="E45">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G45">
         <v>128</v>
       </c>
       <c r="H45">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I45">
         <v>251</v>
       </c>
       <c r="J45">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L45">
         <v>251</v>
@@ -2255,34 +2255,34 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>35</v>
       </c>
       <c r="E46">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F46">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G46">
         <v>132</v>
       </c>
       <c r="H46">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>251</v>
       </c>
       <c r="J46">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L46">
         <v>251</v>
@@ -2293,34 +2293,34 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D47">
         <v>27</v>
       </c>
       <c r="E47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G47">
         <v>132</v>
       </c>
       <c r="H47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I47">
         <v>251</v>
       </c>
       <c r="J47">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L47">
         <v>251</v>
@@ -2331,34 +2331,34 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>128</v>
       </c>
       <c r="H48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>251</v>
       </c>
       <c r="J48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="L48">
         <v>251</v>
@@ -2369,34 +2369,34 @@
         <v>59</v>
       </c>
       <c r="B49">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D49">
         <v>12</v>
       </c>
       <c r="E49">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F49">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G49">
         <v>132</v>
       </c>
       <c r="H49">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>251</v>
       </c>
       <c r="J49">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L49">
         <v>251</v>
@@ -2407,34 +2407,34 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C50">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D50">
         <v>20</v>
       </c>
       <c r="E50">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F50">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G50">
         <v>132</v>
       </c>
       <c r="H50">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I50">
         <v>251</v>
       </c>
       <c r="J50">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="L50">
         <v>251</v>
@@ -2445,34 +2445,34 @@
         <v>61</v>
       </c>
       <c r="B51">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <v>41</v>
       </c>
       <c r="E51">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G51">
         <v>128</v>
       </c>
       <c r="H51">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I51">
         <v>251</v>
       </c>
       <c r="J51">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="L51">
         <v>251</v>
@@ -2483,34 +2483,34 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>128</v>
       </c>
       <c r="H52">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>251</v>
       </c>
       <c r="J52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="L52">
         <v>251</v>

--- a/experiment_results/20201206_AGGREGATION_AVERAGE_ADDITION_NORMALIZATION_NONE/ExamDB/4wise/0.95_.xlsx
+++ b/experiment_results/20201206_AGGREGATION_AVERAGE_ADDITION_NORMALIZATION_NONE/ExamDB/4wise/0.95_.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="op2" sheetId="1" r:id="rId1"/>
+    <sheet name="wong3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -583,19 +583,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -659,19 +659,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -683,10 +683,10 @@
         <v>251</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="L4">
         <v>251</v>
@@ -706,16 +706,16 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>128</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <v>251</v>
@@ -782,16 +782,16 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G7">
         <v>132</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I7">
         <v>251</v>
@@ -849,25 +849,25 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>48</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>132</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>251</v>
@@ -1115,25 +1115,25 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>46</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <v>128</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>251</v>
@@ -1305,25 +1305,25 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>36</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G21">
         <v>132</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I21">
         <v>251</v>
@@ -1352,10 +1352,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -1367,10 +1367,10 @@
         <v>251</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K22">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="L22">
         <v>251</v>
@@ -1428,10 +1428,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -1443,10 +1443,10 @@
         <v>251</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K24">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="L24">
         <v>251</v>
@@ -1609,19 +1609,19 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29">
         <v>42</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G29">
         <v>128</v>
@@ -1694,7 +1694,7 @@
         <v>36</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -1770,16 +1770,16 @@
         <v>33</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G33">
         <v>128</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I33">
         <v>251</v>
@@ -1808,16 +1808,16 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G34">
         <v>132</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I34">
         <v>251</v>
@@ -1937,10 +1937,10 @@
         <v>251</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="L37">
         <v>251</v>
@@ -2036,16 +2036,16 @@
         <v>26</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G40">
         <v>128</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I40">
         <v>251</v>
@@ -2255,25 +2255,25 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46">
         <v>35</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G46">
         <v>132</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I46">
         <v>251</v>
@@ -2340,25 +2340,25 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48">
         <v>128</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I48">
         <v>251</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K48">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="L48">
         <v>251</v>
@@ -2416,16 +2416,16 @@
         <v>20</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G50">
         <v>132</v>
       </c>
       <c r="H50">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I50">
         <v>251</v>
@@ -2454,16 +2454,16 @@
         <v>41</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G51">
         <v>128</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I51">
         <v>251</v>
@@ -2492,10 +2492,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -2507,10 +2507,10 @@
         <v>251</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K52">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="L52">
         <v>251</v>
